--- a/Documents/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
   <si>
     <t>Context Root:</t>
   </si>
@@ -72,15 +72,9 @@
     <t>Logout zum Löschen der Push-RegID.</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
     <t>application/json</t>
   </si>
   <si>
-    <t>Login und Erwarten aller Nutzerdaten</t>
-  </si>
-  <si>
     <t>Returns_Example</t>
   </si>
   <si>
@@ -90,14 +84,205 @@
     <t>Erfolg</t>
   </si>
   <si>
-    <t>Daten, die der Client lokal benötigt</t>
+    <t>regid_push</t>
+  </si>
+  <si>
+    <t>sync</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Prio</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>Registriert Benutzer und schreibt Default-Werte (Kategorienfilter - alle ausgewählt)</t>
+  </si>
+  <si>
+    <t>Übertragt den Auswahlstatus aller Kategorien</t>
+  </si>
+  <si>
+    <t>[{kategorie_name, aktiv_flag}]</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Freundesliste</t>
+  </si>
+  <si>
+    <t>[freund_name]</t>
+  </si>
+  <si>
+    <t>Übertragt die Freundesliste</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>Freund entfernen</t>
+  </si>
+  <si>
+    <t>searched_nick</t>
+  </si>
+  <si>
+    <t>Ergebnisliste</t>
+  </si>
+  <si>
+    <t>[spieler_name]</t>
+  </si>
+  <si>
+    <t>Liste gefundener Mitspieler, deren Name die gesuchte Phrase enthält (like '%abc%')</t>
+  </si>
+  <si>
+    <t>Name des Gegners</t>
+  </si>
+  <si>
+    <t>Um Popup 'Du spielst mit …' anzuzeigen</t>
+  </si>
+  <si>
+    <t>"Hans123"</t>
+  </si>
+  <si>
+    <t>Synchronisieren der Daten des Hauptmenüs (Aktive Spiele und Pending Spiele)
+UND
+Setzen des Feldes letzteAktivitaet</t>
+  </si>
+  <si>
+    <t>username_opponent</t>
+  </si>
+  <si>
+    <t>Spiele: {
+Teilnahme(ich) &amp;&amp; status != CLOSED
+}
+(Relevante DS der Spieltabelle)</t>
+  </si>
+  <si>
+    <t>game_id</t>
+  </si>
+  <si>
+    <t>Gibt einen zufälligen, aktiven (letzte Aktion &lt; 48h) Spielernamen zurück, wobei Kategorienschnittmenge &gt;= 3 und erstellt ein neues Spiel (Anlegen des Spiels + 6 Runden)
+UND
+Sendet dem Gegner die Push-Benachrichtigung.</t>
+  </si>
+  <si>
+    <t>Erstellt ein Spiel (Anlegen des Spiels + 6 Runden) mit dem übergebenen Gegner (wenn Kategorienschnittmenge &gt;= 3, sonst Fehlermeldung).
+UND
+Sendet dem Gegner die Push-Benachrichtigung.</t>
+  </si>
+  <si>
+    <t>Daten der Rundenübersicht
+JOIN aus Runde, Frage, Antwort</t>
+  </si>
+  <si>
+    <t>Liefert die Rundendaten sowie alle beantworteten Fragen und die Ergebnisse beider Spieler</t>
+  </si>
+  <si>
+    <t>flag_answer</t>
+  </si>
+  <si>
+    <t>Akzeptiert oder lehnt die Duellanfrage des Gegenspielers ab.
+UND
+Accept: Spielstatus ACTIVE
+Decline: Spielstatus DECLINED</t>
+  </si>
+  <si>
+    <t>[ {
+ categorie_name : {
+  [frage : {
+   // Fragenattribute
+  } ]
+ }
+} ]</t>
+  </si>
+  <si>
+    <t>Liefert aus der Schnittmenge 3 zufällige Kategorien inkl. je 3 Fragen</t>
+  </si>
+  <si>
+    <t>[antwort-DS]</t>
+  </si>
+  <si>
+    <t>Drei Antworten werden gesendet.
+UND
+Der Server legt die Antwortdatensätze an.
+UND
+er sendet an Gegenspieler Push-Benachrichtigung.</t>
+  </si>
+  <si>
+    <t>{
+ [frage : {
+  // Fragenattribute
+ }],
+ [antwort : {
+  // Antworten des Gegners
+ }],
+}</t>
+  </si>
+  <si>
+    <t>Der Spieler erhält die letzten Fragen des Gegners plus dessen Antworten.</t>
+  </si>
+  <si>
+    <t>{
+ spiel : {
+  verloren : x,
+  gewonnen : x,
+  unentschieden : x,
+  total : x
+ },
+ fragen : {
+  proz_richtig : x,
+  total : x
+ }
+}</t>
+  </si>
+  <si>
+    <t>settings/set_categories</t>
+  </si>
+  <si>
+    <t>settings/get_friends_list</t>
+  </si>
+  <si>
+    <t>settings/unfriend</t>
+  </si>
+  <si>
+    <t>user/search</t>
+  </si>
+  <si>
+    <t>game/create_game_random_opponent</t>
+  </si>
+  <si>
+    <t>game/create_game</t>
+  </si>
+  <si>
+    <t>game/get_game_overview</t>
+  </si>
+  <si>
+    <t>game/answer_duell_request</t>
+  </si>
+  <si>
+    <t>game/get_random_categories</t>
+  </si>
+  <si>
+    <t>game/send_round_result</t>
+  </si>
+  <si>
+    <t>game/continue_round</t>
+  </si>
+  <si>
+    <t>user/statistics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +294,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -142,45 +342,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -200,28 +412,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:K8" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <tableColumns count="11">
-    <tableColumn id="1" name="Resource" dataDxfId="0"/>
-    <tableColumn id="2" name="Param1" dataDxfId="1"/>
-    <tableColumn id="3" name="Param2" dataDxfId="12"/>
-    <tableColumn id="4" name="Param3" dataDxfId="11"/>
-    <tableColumn id="5" name="Param4" dataDxfId="10"/>
-    <tableColumn id="6" name="Param5" dataDxfId="9"/>
-    <tableColumn id="7" name="Method" dataDxfId="8"/>
-    <tableColumn id="8" name="Return_Content_Type" dataDxfId="7"/>
-    <tableColumn id="9" name="Returns" dataDxfId="6"/>
-    <tableColumn id="11" name="Returns_Example" dataDxfId="5"/>
-    <tableColumn id="10" name="Description" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:M19" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <tableColumns count="13">
+    <tableColumn id="1" name="Resource" dataDxfId="12"/>
+    <tableColumn id="2" name="Param1" dataDxfId="11"/>
+    <tableColumn id="3" name="Param2" dataDxfId="10"/>
+    <tableColumn id="4" name="Param3" dataDxfId="9"/>
+    <tableColumn id="5" name="Param4" dataDxfId="8"/>
+    <tableColumn id="6" name="Param5" dataDxfId="7"/>
+    <tableColumn id="7" name="Method" dataDxfId="6"/>
+    <tableColumn id="8" name="Return_Content_Type" dataDxfId="5"/>
+    <tableColumn id="9" name="Returns" dataDxfId="4"/>
+    <tableColumn id="11" name="Returns_Example" dataDxfId="3"/>
+    <tableColumn id="10" name="Description" dataDxfId="2"/>
+    <tableColumn id="12" name="Prio" dataDxfId="1"/>
+    <tableColumn id="13" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,7 +473,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -331,7 +545,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,25 +719,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -560,15 +774,21 @@
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -583,19 +803,23 @@
         <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="K5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -603,50 +827,429 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="I7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="L7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -663,7 +1266,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -675,7 +1278,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
   <si>
     <t>Context Root:</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>wi_quiz/</t>
   </si>
   <si>
     <t>logout</t>
@@ -276,6 +273,21 @@
   </si>
   <si>
     <t>user/statistics</t>
+  </si>
+  <si>
+    <t>Studiduell/</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>text/html</t>
+  </si>
+  <si>
+    <t>Erfolgsmeldung, wenn ReST-Webservice verfügbar ist.</t>
+  </si>
+  <si>
+    <t>Prüfung, ob ReST-Webservice erreichbar ist.</t>
   </si>
 </sst>
 </file>
@@ -350,7 +362,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -412,7 +424,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:M19" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:M20" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <tableColumns count="13">
     <tableColumn id="1" name="Resource" dataDxfId="12"/>
     <tableColumn id="2" name="Param1" dataDxfId="11"/>
@@ -433,9 +445,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -473,7 +485,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -545,7 +557,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -719,14 +731,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -742,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -774,482 +787,505 @@
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="L8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="M13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K18" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1266,7 +1302,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1278,7 +1314,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
   <si>
     <t>Context Root:</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>optional</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>Prio</t>
@@ -284,10 +281,22 @@
     <t>text/html</t>
   </si>
   <si>
-    <t>Erfolgsmeldung, wenn ReST-Webservice verfügbar ist.</t>
-  </si>
-  <si>
     <t>Prüfung, ob ReST-Webservice erreichbar ist.</t>
+  </si>
+  <si>
+    <t>Statusmeldung, ob Server-Konfiguration korrekt (ReST-WS + DB verfügbar)</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Umgesetzt</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>ja</t>
   </si>
 </sst>
 </file>
@@ -364,7 +373,10 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -424,21 +436,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:M20" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <tableColumns count="13">
-    <tableColumn id="1" name="Resource" dataDxfId="12"/>
-    <tableColumn id="2" name="Param1" dataDxfId="11"/>
-    <tableColumn id="3" name="Param2" dataDxfId="10"/>
-    <tableColumn id="4" name="Param3" dataDxfId="9"/>
-    <tableColumn id="5" name="Param4" dataDxfId="8"/>
-    <tableColumn id="6" name="Param5" dataDxfId="7"/>
-    <tableColumn id="7" name="Method" dataDxfId="6"/>
-    <tableColumn id="8" name="Return_Content_Type" dataDxfId="5"/>
-    <tableColumn id="9" name="Returns" dataDxfId="4"/>
-    <tableColumn id="11" name="Returns_Example" dataDxfId="3"/>
-    <tableColumn id="10" name="Description" dataDxfId="2"/>
-    <tableColumn id="12" name="Prio" dataDxfId="1"/>
-    <tableColumn id="13" name="Column1" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:N20" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <tableColumns count="14">
+    <tableColumn id="1" name="Resource" dataDxfId="13"/>
+    <tableColumn id="2" name="Param1" dataDxfId="12"/>
+    <tableColumn id="3" name="Param2" dataDxfId="11"/>
+    <tableColumn id="4" name="Param3" dataDxfId="10"/>
+    <tableColumn id="5" name="Param4" dataDxfId="9"/>
+    <tableColumn id="6" name="Param5" dataDxfId="8"/>
+    <tableColumn id="7" name="Method" dataDxfId="7"/>
+    <tableColumn id="8" name="Return_Content_Type" dataDxfId="6"/>
+    <tableColumn id="9" name="Returns" dataDxfId="5"/>
+    <tableColumn id="11" name="Returns_Example" dataDxfId="4"/>
+    <tableColumn id="10" name="Description" dataDxfId="3"/>
+    <tableColumn id="12" name="Prio" dataDxfId="2"/>
+    <tableColumn id="13" name="Kommentar" dataDxfId="1"/>
+    <tableColumn id="15" name="Umgesetzt" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -731,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,20 +758,20 @@
     <col min="4" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57.140625" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -793,13 +806,16 @@
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -807,24 +823,27 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>75</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -848,12 +867,15 @@
         <v>19</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -875,16 +897,19 @@
         <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -916,10 +941,13 @@
         <v>23</v>
       </c>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="N8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -928,12 +956,12 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
@@ -945,14 +973,17 @@
         <v>19</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -970,20 +1001,23 @@
         <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -992,7 +1026,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1009,19 +1043,22 @@
         <v>19</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1034,20 +1071,23 @@
         <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -1065,22 +1105,25 @@
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1089,7 +1132,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1106,14 +1149,17 @@
         <v>19</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N14" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
@@ -1122,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1133,18 +1179,21 @@
         <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
@@ -1153,10 +1202,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
@@ -1172,17 +1221,20 @@
         <v>19</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1195,28 +1247,31 @@
         <v>17</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>15</v>
@@ -1228,17 +1283,20 @@
         <v>19</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1251,18 +1309,21 @@
         <v>17</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="195" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
@@ -1280,14 +1341,22 @@
         <v>17</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N20">
+      <formula1>"nein,ja"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Documents/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="84">
   <si>
     <t>Context Root:</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Freundesliste</t>
   </si>
   <si>
-    <t>[freund_name]</t>
-  </si>
-  <si>
     <t>Übertragt die Freundesliste</t>
   </si>
   <si>
@@ -123,25 +120,13 @@
     <t>Freund entfernen</t>
   </si>
   <si>
-    <t>searched_nick</t>
-  </si>
-  <si>
     <t>Ergebnisliste</t>
   </si>
   <si>
-    <t>[spieler_name]</t>
-  </si>
-  <si>
     <t>Liste gefundener Mitspieler, deren Name die gesuchte Phrase enthält (like '%abc%')</t>
   </si>
   <si>
-    <t>Name des Gegners</t>
-  </si>
-  <si>
     <t>Um Popup 'Du spielst mit …' anzuzeigen</t>
-  </si>
-  <si>
-    <t>"Hans123"</t>
   </si>
   <si>
     <t>Synchronisieren der Daten des Hauptmenüs (Aktive Spiele und Pending Spiele)
@@ -185,15 +170,6 @@
 UND
 Accept: Spielstatus ACTIVE
 Decline: Spielstatus DECLINED</t>
-  </si>
-  <si>
-    <t>[ {
- categorie_name : {
-  [frage : {
-   // Fragenattribute
-  } ]
- }
-} ]</t>
   </si>
   <si>
     <t>Liefert aus der Schnittmenge 3 zufällige Kategorien inkl. je 3 Fragen</t>
@@ -209,97 +185,135 @@
 er sendet an Gegenspieler Push-Benachrichtigung.</t>
   </si>
   <si>
+    <t>Der Spieler erhält die letzten Fragen des Gegners plus dessen Antworten.</t>
+  </si>
+  <si>
+    <t>settings/set_categories</t>
+  </si>
+  <si>
+    <t>settings/unfriend</t>
+  </si>
+  <si>
+    <t>user/search</t>
+  </si>
+  <si>
+    <t>game/create_game_random_opponent</t>
+  </si>
+  <si>
+    <t>game/create_game</t>
+  </si>
+  <si>
+    <t>game/get_game_overview</t>
+  </si>
+  <si>
+    <t>game/answer_duell_request</t>
+  </si>
+  <si>
+    <t>game/get_random_categories</t>
+  </si>
+  <si>
+    <t>game/send_round_result</t>
+  </si>
+  <si>
+    <t>game/continue_round</t>
+  </si>
+  <si>
+    <t>user/statistics</t>
+  </si>
+  <si>
+    <t>Studiduell/</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>text/html</t>
+  </si>
+  <si>
+    <t>Prüfung, ob ReST-Webservice erreichbar ist.</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Umgesetzt</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Mock</t>
+  </si>
+  <si>
+    <t>settings/friend</t>
+  </si>
+  <si>
+    <t>Freund hinzufügen</t>
+  </si>
+  <si>
+    <t>settings/list_friends</t>
+  </si>
+  <si>
+    <t>{games:[Spiel_DS]}</t>
+  </si>
+  <si>
+    <t>Statusmeldung, ob Server-Konfiguration korrekt (ReST-WS + DB verfügbar)
+Gibt eine HTML-Seite zurück</t>
+  </si>
+  <si>
+    <t>{users:[user_name]}</t>
+  </si>
+  <si>
+    <t>searched_nick_part</t>
+  </si>
+  <si>
+    <t>Name des Gegners oder null</t>
+  </si>
+  <si>
+    <t>{user:Hans_Wurst}
+ALTERNATIV:
+{user:null} (null nicht in Hochkommata)</t>
+  </si>
+  <si>
     <t>{
- [frage : {
+ [question : {
   // Fragenattribute
  }],
- [antwort : {
+ [answer : {
   // Antworten des Gegners
  }],
 }</t>
   </si>
   <si>
-    <t>Der Spieler erhält die letzten Fragen des Gegners plus dessen Antworten.</t>
-  </si>
-  <si>
     <t>{
- spiel : {
-  verloren : x,
-  gewonnen : x,
-  unentschieden : x,
+ game : {
+  lost : x,
+  won : x,
+  draw : x,
   total : x
  },
- fragen : {
-  proz_richtig : x,
+ questions : {
+  perc_right : x,
   total : x
  }
 }</t>
   </si>
   <si>
-    <t>settings/set_categories</t>
-  </si>
-  <si>
-    <t>settings/get_friends_list</t>
-  </si>
-  <si>
-    <t>settings/unfriend</t>
-  </si>
-  <si>
-    <t>user/search</t>
-  </si>
-  <si>
-    <t>game/create_game_random_opponent</t>
-  </si>
-  <si>
-    <t>game/create_game</t>
-  </si>
-  <si>
-    <t>game/get_game_overview</t>
-  </si>
-  <si>
-    <t>game/answer_duell_request</t>
-  </si>
-  <si>
-    <t>game/get_random_categories</t>
-  </si>
-  <si>
-    <t>game/send_round_result</t>
-  </si>
-  <si>
-    <t>game/continue_round</t>
-  </si>
-  <si>
-    <t>user/statistics</t>
-  </si>
-  <si>
-    <t>Studiduell/</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>text/html</t>
-  </si>
-  <si>
-    <t>Prüfung, ob ReST-Webservice erreichbar ist.</t>
-  </si>
-  <si>
-    <t>Statusmeldung, ob Server-Konfiguration korrekt (ReST-WS + DB verfügbar)</t>
-  </si>
-  <si>
-    <t>Kommentar</t>
-  </si>
-  <si>
-    <t>Umgesetzt</t>
-  </si>
-  <si>
-    <t>nein</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>Mock</t>
+    <t>[ {
+ categorie_name : {
+  [question : {
+   // Fragenattribute
+  } ]
+ }
+} ]</t>
+  </si>
+  <si>
+    <t>{friends:[friend_name]}
+ALTERNATIV:
+{friends:null}</t>
   </si>
 </sst>
 </file>
@@ -439,7 +453,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:N20" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:N21" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <tableColumns count="14">
     <tableColumn id="1" name="Resource" dataDxfId="13"/>
     <tableColumn id="2" name="Param1" dataDxfId="12"/>
@@ -747,22 +761,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
     <col min="11" max="11" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -771,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -812,13 +826,13 @@
         <v>24</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -826,22 +840,22 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>75</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -875,7 +889,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.25">
@@ -900,16 +914,18 @@
         <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -945,12 +961,12 @@
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -981,12 +997,12 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1007,20 +1023,20 @@
         <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1029,7 +1045,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1037,7 +1053,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>20</v>
@@ -1046,58 +1062,60 @@
         <v>19</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1105,28 +1123,26 @@
         <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -1134,35 +1150,35 @@
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="N14" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
@@ -1171,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1179,24 +1195,26 @@
         <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K15" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
@@ -1205,135 +1223,137 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K17" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K19" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1344,19 +1364,51 @@
         <v>17</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N21">
       <formula1>"nein,ja,Mock"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
   <si>
     <t>Context Root:</t>
   </si>
@@ -51,15 +51,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t>nick</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -84,18 +75,12 @@
     <t>regid_push</t>
   </si>
   <si>
-    <t>sync</t>
-  </si>
-  <si>
     <t>optional</t>
   </si>
   <si>
     <t>Prio</t>
   </si>
   <si>
-    <t>register</t>
-  </si>
-  <si>
     <t>Registriert Benutzer und schreibt Default-Werte (Kategorienfilter - alle ausgewählt)</t>
   </si>
   <si>
@@ -115,9 +100,6 @@
   </si>
   <si>
     <t>friend</t>
-  </si>
-  <si>
-    <t>Freund entfernen</t>
   </si>
   <si>
     <t>Ergebnisliste</t>
@@ -141,9 +123,6 @@
 Teilnahme(ich) &amp;&amp; status != CLOSED
 }
 (Relevante DS der Spieltabelle)</t>
-  </si>
-  <si>
-    <t>game_id</t>
   </si>
   <si>
     <t>Gibt einen zufälligen, aktiven (letzte Aktion &lt; 48h) Spielernamen zurück, wobei Kategorienschnittmenge &gt;= 3 und erstellt ein neues Spiel (Anlegen des Spiels + 6 Runden)
@@ -191,9 +170,6 @@
     <t>settings/set_categories</t>
   </si>
   <si>
-    <t>settings/unfriend</t>
-  </si>
-  <si>
     <t>user/search</t>
   </si>
   <si>
@@ -203,21 +179,9 @@
     <t>game/create_game</t>
   </si>
   <si>
-    <t>game/get_game_overview</t>
-  </si>
-  <si>
-    <t>game/answer_duell_request</t>
-  </si>
-  <si>
-    <t>game/get_random_categories</t>
-  </si>
-  <si>
     <t>game/send_round_result</t>
   </si>
   <si>
-    <t>game/continue_round</t>
-  </si>
-  <si>
     <t>user/statistics</t>
   </si>
   <si>
@@ -249,9 +213,6 @@
   </si>
   <si>
     <t>settings/friend</t>
-  </si>
-  <si>
-    <t>Freund hinzufügen</t>
   </si>
   <si>
     <t>settings/list_friends</t>
@@ -314,6 +275,45 @@
     <t>{friends:[friend_name]}
 ALTERNATIV:
 {friends:null}</t>
+  </si>
+  <si>
+    <t>user/register</t>
+  </si>
+  <si>
+    <t>SpringSecurity</t>
+  </si>
+  <si>
+    <t>optional (ja)</t>
+  </si>
+  <si>
+    <t>POST/DELETE</t>
+  </si>
+  <si>
+    <t>Freund hinzufügen/entfernen</t>
+  </si>
+  <si>
+    <t>user/sync/{username}</t>
+  </si>
+  <si>
+    <t>game/get_game_overview/{gameID}</t>
+  </si>
+  <si>
+    <t>game/answer_duell_request/{gameID}</t>
+  </si>
+  <si>
+    <t>game/get_random_categories/{gameID}</t>
+  </si>
+  <si>
+    <t>game/continue_round/{gameID}</t>
+  </si>
+  <si>
+    <t>Loggt einen Benutzer ein.</t>
+  </si>
+  <si>
+    <t>user/login/{username}</t>
+  </si>
+  <si>
+    <t>user/logout/{username}</t>
   </si>
 </sst>
 </file>
@@ -388,9 +388,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -453,31 +456,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:N21" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <tableColumns count="14">
-    <tableColumn id="1" name="Resource" dataDxfId="13"/>
-    <tableColumn id="2" name="Param1" dataDxfId="12"/>
-    <tableColumn id="3" name="Param2" dataDxfId="11"/>
-    <tableColumn id="4" name="Param3" dataDxfId="10"/>
-    <tableColumn id="5" name="Param4" dataDxfId="9"/>
-    <tableColumn id="6" name="Param5" dataDxfId="8"/>
-    <tableColumn id="7" name="Method" dataDxfId="7"/>
-    <tableColumn id="8" name="Return_Content_Type" dataDxfId="6"/>
-    <tableColumn id="9" name="Returns" dataDxfId="5"/>
-    <tableColumn id="11" name="Returns_Example" dataDxfId="4"/>
-    <tableColumn id="10" name="Description" dataDxfId="3"/>
-    <tableColumn id="12" name="Prio" dataDxfId="2"/>
-    <tableColumn id="13" name="Kommentar" dataDxfId="1"/>
-    <tableColumn id="15" name="Umgesetzt" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:O21" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <tableColumns count="15">
+    <tableColumn id="1" name="Resource" dataDxfId="14"/>
+    <tableColumn id="2" name="Param1" dataDxfId="13"/>
+    <tableColumn id="3" name="Param2" dataDxfId="12"/>
+    <tableColumn id="4" name="Param3" dataDxfId="11"/>
+    <tableColumn id="5" name="Param4" dataDxfId="10"/>
+    <tableColumn id="6" name="Param5" dataDxfId="9"/>
+    <tableColumn id="7" name="Method" dataDxfId="8"/>
+    <tableColumn id="8" name="Return_Content_Type" dataDxfId="7"/>
+    <tableColumn id="9" name="Returns" dataDxfId="6"/>
+    <tableColumn id="11" name="Returns_Example" dataDxfId="5"/>
+    <tableColumn id="10" name="Description" dataDxfId="4"/>
+    <tableColumn id="12" name="Prio" dataDxfId="3"/>
+    <tableColumn id="13" name="Kommentar" dataDxfId="2"/>
+    <tableColumn id="15" name="Umgesetzt" dataDxfId="1"/>
+    <tableColumn id="14" name="SpringSecurity" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -515,7 +519,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -587,7 +591,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -761,34 +765,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.28515625" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
     <col min="11" max="11" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -817,22 +821,25 @@
         <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -840,570 +847,559 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="I8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="I10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="1"/>
+      <c r="L10" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="N15" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K16" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K18" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="K20" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1422,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1438,7 +1434,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Concept/Schnittstelle_Server.xlsx
+++ b/Documents/Concept/Schnittstelle_Server.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
   <si>
     <t>Context Root:</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Param4</t>
   </si>
   <si>
-    <t>Param5</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>friend</t>
+  </si>
+  <si>
+    <t>Freund entfernen</t>
   </si>
   <si>
     <t>Ergebnisliste</t>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>username_opponent</t>
-  </si>
-  <si>
-    <t>Spiele: {
-Teilnahme(ich) &amp;&amp; status != CLOSED
-}
-(Relevante DS der Spieltabelle)</t>
   </si>
   <si>
     <t>Gibt einen zufälligen, aktiven (letzte Aktion &lt; 48h) Spielernamen zurück, wobei Kategorienschnittmenge &gt;= 3 und erstellt ein neues Spiel (Anlegen des Spiels + 6 Runden)
@@ -209,10 +203,10 @@
     <t>ja</t>
   </si>
   <si>
-    <t>Mock</t>
-  </si>
-  <si>
     <t>settings/friend</t>
+  </si>
+  <si>
+    <t>Freund hinzufügen</t>
   </si>
   <si>
     <t>settings/list_friends</t>
@@ -280,21 +274,15 @@
     <t>user/register</t>
   </si>
   <si>
+    <t>user/sync</t>
+  </si>
+  <si>
     <t>SpringSecurity</t>
   </si>
   <si>
     <t>optional (ja)</t>
   </si>
   <si>
-    <t>POST/DELETE</t>
-  </si>
-  <si>
-    <t>Freund hinzufügen/entfernen</t>
-  </si>
-  <si>
-    <t>user/sync/{username}</t>
-  </si>
-  <si>
     <t>game/get_game_overview/{gameID}</t>
   </si>
   <si>
@@ -307,13 +295,44 @@
     <t>game/continue_round/{gameID}</t>
   </si>
   <si>
+    <t>user/login</t>
+  </si>
+  <si>
     <t>Loggt einen Benutzer ein.</t>
   </si>
   <si>
-    <t>user/login/{username}</t>
-  </si>
-  <si>
     <t>user/logout/{username}</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>RequestBody</t>
+  </si>
+  <si>
+    <t>200 / 409</t>
+  </si>
+  <si>
+    <t>200 / 403</t>
+  </si>
+  <si>
+    <t>Spiele: {
+Teilnahme(ich) &amp;&amp; status != CLOSED
+}
+(Relevante DS der Spieltabelle)
+(i. e. 200)
+/
+404</t>
+  </si>
+  <si>
+    <t>User
+-&gt;Benutzername
+-&gt;Passwort</t>
+  </si>
+  <si>
+    <t>User
+-&gt;Benutzername
+-&gt;Push-ID</t>
   </si>
 </sst>
 </file>
@@ -372,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -386,6 +405,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,14 +476,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:O21" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A4:O22" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="15">
     <tableColumn id="1" name="Resource" dataDxfId="14"/>
     <tableColumn id="2" name="Param1" dataDxfId="13"/>
     <tableColumn id="3" name="Param2" dataDxfId="12"/>
     <tableColumn id="4" name="Param3" dataDxfId="11"/>
     <tableColumn id="5" name="Param4" dataDxfId="10"/>
-    <tableColumn id="6" name="Param5" dataDxfId="9"/>
+    <tableColumn id="6" name="RequestBody" dataDxfId="9"/>
     <tableColumn id="7" name="Method" dataDxfId="8"/>
     <tableColumn id="8" name="Return_Content_Type" dataDxfId="7"/>
     <tableColumn id="9" name="Returns" dataDxfId="6"/>
@@ -765,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,12 +809,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -809,31 +829,31 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>72</v>
@@ -847,113 +867,119 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>31</v>
@@ -961,15 +987,15 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -977,28 +1003,28 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1006,69 +1032,69 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="L10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1076,335 +1102,370 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="N16" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K17" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N21">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N22">
       <formula1>"nein,ja,Mock"</formula1>
     </dataValidation>
   </dataValidations>
